--- a/pred_ohlcv/54_21/2019-10-22 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 BSV ohlcv.xlsx
@@ -3538,7 +3538,7 @@
         <v>-1218.8916728</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-935.0287735499996</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-935.0287735499996</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-935.0287735499996</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-890.1626735499997</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1007.89257355</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-984.4941735499997</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-953.0466735499997</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-953.0466735499997</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-933.9441735499997</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-774.0793735499997</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-434.5395735499996</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-433.9577735499996</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-433.9577735499996</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-433.9470735499996</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-433.9470735499996</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-433.8452575899996</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-381.6817575899996</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>948.4672123200004</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1185.83208005</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>995.3637800500003</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>788.0279800500002</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>701.0159800500002</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>843.8759800500002</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>521.5152800500002</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>734.0654800500004</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>720.0676800500004</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>755.5097800500004</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>748.4473800500003</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>776.2394800500003</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>725.7213800500003</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>697.9292800500003</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>698.8320800500003</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>696.0946800500003</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>655.4532800500003</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>651.7176800500004</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>680.9823800500003</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>674.3335800500003</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>839.8561800500001</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>783.6782800500001</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>783.6782800500001</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>783.6782800500001</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>783.6782800500001</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>783.6782800500001</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>745.8465800500002</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>749.4391800500001</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-2787.02334788</v>
       </c>
       <c r="H838">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-2911.64764788</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-2949.348147879999</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-2909.57794788</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-2909.57794788</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-3153.64316887</v>
       </c>
       <c r="H979">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-3125.888068870001</v>
       </c>
       <c r="H980">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-3154.126868870001</v>
       </c>
       <c r="H981">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-3154.126868870001</v>
       </c>
       <c r="H982">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-3146.29156887</v>
       </c>
       <c r="H983">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-3146.29156887</v>
       </c>
       <c r="H984">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-3146.29156887</v>
       </c>
       <c r="H985">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-3146.29156887</v>
       </c>
       <c r="H986">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-3146.29156887</v>
       </c>
       <c r="H987">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-2989.24166887</v>
       </c>
       <c r="H988">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-2982.50916887</v>
       </c>
       <c r="H989">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-3128.72726887</v>
       </c>
       <c r="H990">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-3141.15366887</v>
       </c>
       <c r="H991">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-3140.86366887</v>
       </c>
       <c r="H992">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-2805.227468870001</v>
       </c>
       <c r="H1026">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-2864.642468870001</v>
       </c>
       <c r="H1035">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-2864.642468870001</v>
       </c>
       <c r="H1036">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-2886.728468870001</v>
       </c>
       <c r="H1039">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-2888.114468870001</v>
       </c>
       <c r="H1040">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-2888.114468870001</v>
       </c>
       <c r="H1041">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-2980.921268870001</v>
       </c>
       <c r="H1042">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-2972.785968870001</v>
       </c>
       <c r="H1043">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-2972.785968870001</v>
       </c>
       <c r="H1044">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-22 BSV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-22 BSV ohlcv.xlsx
@@ -6398,7 +6398,7 @@
         <v>948.4672123200004</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1185.83208005</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>995.3637800500003</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>788.0279800500002</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>843.8759800500002</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>521.5152800500002</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>436.6105800500002</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>235.3268800500003</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>329.7146800500003</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>730.0852800500003</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>734.7787800500004</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>720.0676800500004</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>755.5097800500004</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>748.4473800500003</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>776.2394800500003</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>725.7213800500003</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>697.9292800500003</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>698.8320800500003</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>696.0946800500003</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>655.4532800500003</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>651.7176800500004</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>680.9823800500003</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>674.3335800500003</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>839.8561800500001</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>783.6782800500001</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>783.6782800500001</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>783.6782800500001</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>783.6782800500001</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>783.6782800500001</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>745.8465800500002</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>749.4391800500001</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>802.1360425300004</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>802.1360425300004</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>686.8369425300004</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>778.5041425300004</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>728.9566425300004</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>782.7272294000004</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>805.9694294000004</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>821.2755294000004</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>886.3461425300004</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>857.8769425300004</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>1022.29818948</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>829.0255894800005</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>862.6872894800005</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>816.7630894800004</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>663.4068369000004</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>307.3493007800001</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>300.4381007800001</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>195.9854007800001</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>187.8788007800001</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>281.9257030100001</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>281.9257030100001</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>347.6706030100001</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>341.1689030100001</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>341.1689030100001</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>221.8726030100001</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>192.6681030100001</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>110.2686030100001</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>170.5812301100001</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>170.5812301100001</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>98.72063026000012</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>121.4507302600001</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>156.8003302600001</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>151.7421302600001</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>151.7421302600001</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>89.80073026000012</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-2949.348147879999</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-2909.57794788</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-2909.57794788</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-2838.183066099999</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-2814.4588661</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-2827.28870761</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-2825.14420761</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-2815.69920761</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-2803.29430761</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-2803.29430761</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-2880.45800482</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-2868.44610482</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-2830.13050482</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-2843.12930482</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-2899.81510482</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-2872.01210482</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-2855.92640482</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-2850.54810482</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-2840.17890482</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-2855.28000482</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-2792.49316752</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-2794.20666752</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-2794.20666752</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-2782.03436752</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-2782.03436752</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-2782.03436752</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-2794.65338637</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-2798.13688637</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-2798.13688637</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-2797.13688637</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-2770.357562319999</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-2744.37226232</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-2744.37226232</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-2729.93816232</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-2748.32546232</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-2760.71516232</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-2760.71516232</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-2724.01516232</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-2764.76336232</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-2764.76336232</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-2763.17036232</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-2727.69526232</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-2727.69526232</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-2683.44106232</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-2683.44106232</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-2698.45296232</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-2698.45296232</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-2687.87356232</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-2691.12196232</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-2691.12196232</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-2691.12196232</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-2700.78606232</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-2655.44476232</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-2665.57476232</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-2648.54736232</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-2668.11356232</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-2683.93566232</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-2861.51586232</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-2853.16596232</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-2859.75706232</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-2857.74356232</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-2861.93416232</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-2896.12756232</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-2895.80166232</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-2895.80166232</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-2903.58746232</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-2904.87886232</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-2856.64186232</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-2856.14186232</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-2910.20816232</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-2910.20816232</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-2910.20816232</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-2867.05146232</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-2870.19736232</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-2870.19736232</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-2880.20066232</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-2875.39966887</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-2875.56996887</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-2875.50446887</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-2876.63526887</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-2870.09046887</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-2870.09046887</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-2870.09046887</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-2906.49196887</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-2906.72136887</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-2906.72136887</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-2922.30346887</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-2922.13756887</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-2953.48756887</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-2961.48756887</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-2961.25766887</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-2961.25766887</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-2961.25766887</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-2961.25766887</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-2974.07016887</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-2974.07016887</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-2976.20936887</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-3015.30936887</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-3044.33116887</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-3027.64276887</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-3027.64276887</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-3032.87076887</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-3080.66876887</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-3101.55266887</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-3111.44776887</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-3153.64316887</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-3125.888068870001</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-3154.126868870001</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-3154.126868870001</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-3146.29156887</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-3146.29156887</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-3146.29156887</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-3146.29156887</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-3146.29156887</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-2989.24166887</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-2982.50916887</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-3128.72726887</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-3141.15366887</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-3140.86366887</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-2805.227468870001</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-2808.651268870001</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-2807.408068870001</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-2807.408068870001</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-2807.408068870001</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-2807.408068870001</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-2811.061168870001</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-2811.061168870001</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-2864.892468870001</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-2864.642468870001</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-2864.642468870001</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-2864.642468870001</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-2886.728468870001</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-2886.728468870001</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-2888.114468870001</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-2888.114468870001</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-2980.921268870001</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-2972.785968870001</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-2972.785968870001</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
